--- a/biology/Zoologie/Colochirus_robustus/Colochirus_robustus.xlsx
+++ b/biology/Zoologie/Colochirus_robustus/Colochirus_robustus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colochirus robustus · Concombre de mer jaune
 Colochirus robustus, communément nommé Concombre de mer jaune, est une espèce d'échinodermes de la famille des Cucumariidae.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce concombre de mer jaune est de petite taille de 5 à 8 cm de long[2]. Son aspect est globalement cylindrique et son corps est marqué par cinq nervures longitudinales pourvues de petites excroissances irrégulières. La partie antérieure du corps est dotée de huit tentacules servant à capter la nourriture.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce concombre de mer jaune est de petite taille de 5 à 8 cm de long. Son aspect est globalement cylindrique et son corps est marqué par cinq nervures longitudinales pourvues de petites excroissances irrégulières. La partie antérieure du corps est dotée de huit tentacules servant à capter la nourriture.
 La teinte est jaune vif avec parfois une nuance de gris entre les nervures longitudinales.
 </t>
         </is>
@@ -544,9 +558,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Concombre de mer jaune est présent dans les eaux tropicales de la zone centrale de la région Indo-Pacifique. On le trouve entre 7 et 112 m de profondeur[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Concombre de mer jaune est présent dans les eaux tropicales de la zone centrale de la région Indo-Pacifique. On le trouve entre 7 et 112 m de profondeur.
 </t>
         </is>
       </c>
